--- a/data/output/FV2304_FV2210/UTILMD/11021.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11021.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3520" uniqueCount="302">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3541" uniqueCount="302">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1024,6 +1024,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U164" totalsRowShown="0">
+  <autoFilter ref="A1:U164"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1313,7 +1343,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -8872,5 +8905,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/UTILMD/11021.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11021.xlsx
@@ -1921,7 +1921,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2389,7 +2389,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2577,7 +2577,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -3059,7 +3059,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3419,7 +3419,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -3715,7 +3715,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -3903,7 +3903,7 @@
         <v>281</v>
       </c>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4107,7 +4107,7 @@
         <v>282</v>
       </c>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4311,7 +4311,7 @@
         <v>283</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -4515,7 +4515,7 @@
         <v>284</v>
       </c>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -4719,7 +4719,7 @@
         <v>285</v>
       </c>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -4873,7 +4873,7 @@
         <v>286</v>
       </c>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -5075,7 +5075,7 @@
         <v>287</v>
       </c>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -5265,7 +5265,7 @@
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -5455,7 +5455,7 @@
         <v>289</v>
       </c>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -5643,7 +5643,7 @@
         <v>290</v>
       </c>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -5781,7 +5781,7 @@
       </c>
       <c r="K81" s="2"/>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -5931,7 +5931,7 @@
         <v>291</v>
       </c>
       <c r="L84" s="4"/>
-      <c r="M84" s="2" t="s">
+      <c r="M84" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N84" s="2" t="s">
@@ -6177,7 +6177,7 @@
         <v>293</v>
       </c>
       <c r="L89" s="4"/>
-      <c r="M89" s="2" t="s">
+      <c r="M89" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N89" s="2" t="s">
@@ -6423,7 +6423,7 @@
         <v>295</v>
       </c>
       <c r="L94" s="4"/>
-      <c r="M94" s="2" t="s">
+      <c r="M94" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N94" s="2" t="s">
@@ -6611,7 +6611,7 @@
         <v>281</v>
       </c>
       <c r="L98" s="4"/>
-      <c r="M98" s="2" t="s">
+      <c r="M98" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N98" s="2" t="s">
@@ -6805,7 +6805,7 @@
         <v>296</v>
       </c>
       <c r="L102" s="4"/>
-      <c r="M102" s="2" t="s">
+      <c r="M102" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N102" s="2" t="s">
@@ -6903,7 +6903,7 @@
         <v>281</v>
       </c>
       <c r="L104" s="4"/>
-      <c r="M104" s="2" t="s">
+      <c r="M104" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N104" s="2" t="s">
@@ -7095,7 +7095,7 @@
         <v>297</v>
       </c>
       <c r="L108" s="4"/>
-      <c r="M108" s="2" t="s">
+      <c r="M108" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N108" s="2" t="s">
@@ -7395,7 +7395,7 @@
         <v>281</v>
       </c>
       <c r="L114" s="4"/>
-      <c r="M114" s="2" t="s">
+      <c r="M114" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N114" s="2" t="s">
@@ -7535,7 +7535,7 @@
         <v>281</v>
       </c>
       <c r="L117" s="4"/>
-      <c r="M117" s="2" t="s">
+      <c r="M117" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N117" s="2" t="s">
@@ -7741,7 +7741,7 @@
       </c>
       <c r="K121" s="2"/>
       <c r="L121" s="4"/>
-      <c r="M121" s="2" t="s">
+      <c r="M121" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N121" s="2" t="s">
@@ -7949,7 +7949,7 @@
         <v>299</v>
       </c>
       <c r="L125" s="4"/>
-      <c r="M125" s="2" t="s">
+      <c r="M125" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N125" s="2" t="s">
@@ -8085,7 +8085,7 @@
       </c>
       <c r="K128" s="2"/>
       <c r="L128" s="4"/>
-      <c r="M128" s="2" t="s">
+      <c r="M128" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N128" s="2" t="s">
@@ -8329,7 +8329,7 @@
       </c>
       <c r="K133" s="2"/>
       <c r="L133" s="4"/>
-      <c r="M133" s="2" t="s">
+      <c r="M133" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N133" s="2" t="s">
@@ -8527,7 +8527,7 @@
       </c>
       <c r="K137" s="2"/>
       <c r="L137" s="4"/>
-      <c r="M137" s="2" t="s">
+      <c r="M137" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N137" s="2" t="s">
@@ -8929,7 +8929,7 @@
         <v>301</v>
       </c>
       <c r="L145" s="4"/>
-      <c r="M145" s="2" t="s">
+      <c r="M145" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N145" s="2" t="s">
@@ -9225,7 +9225,7 @@
       </c>
       <c r="K151" s="2"/>
       <c r="L151" s="4"/>
-      <c r="M151" s="2" t="s">
+      <c r="M151" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N151" s="2" t="s">
@@ -9375,7 +9375,7 @@
         <v>281</v>
       </c>
       <c r="L154" s="4"/>
-      <c r="M154" s="2" t="s">
+      <c r="M154" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N154" s="2" t="s">
@@ -9765,7 +9765,7 @@
       </c>
       <c r="K162" s="2"/>
       <c r="L162" s="4"/>
-      <c r="M162" s="2" t="s">
+      <c r="M162" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N162" s="2"/>
